--- a/Semester8/lab/Exp3.xlsx
+++ b/Semester8/lab/Exp3.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,20 +26,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
-    <t>Temp</t>
+    <t>Temperature (T) [C]</t>
   </si>
   <si>
-    <t>Vol</t>
+    <t>Voltage (V) [V]</t>
+  </si>
+  <si>
+    <t>Red LED</t>
+  </si>
+  <si>
+    <t>Green LED</t>
+  </si>
+  <si>
+    <t>I=70 uA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,8 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,11 +302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1944849504"/>
-        <c:axId val="-1944848960"/>
+        <c:axId val="-417714704"/>
+        <c:axId val="-417713616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1944849504"/>
+        <c:axId val="-417714704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -334,12 +363,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1944848960"/>
+        <c:crossAx val="-417713616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1944848960"/>
+        <c:axId val="-417713616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1944849504"/>
+        <c:crossAx val="-417714704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -675,11 +704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1936524224"/>
-        <c:axId val="-1936524768"/>
+        <c:axId val="-417721232"/>
+        <c:axId val="-417722320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1936524224"/>
+        <c:axId val="-417721232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,12 +765,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1936524768"/>
+        <c:crossAx val="-417722320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1936524768"/>
+        <c:axId val="-417722320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1936524224"/>
+        <c:crossAx val="-417721232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2295,10 +2324,13 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B18"/>
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2429,14 +2461,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>120</v>
@@ -2609,4 +2652,308 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>105.2</v>
+      </c>
+      <c r="B4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>1.53</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>91.7</v>
+      </c>
+      <c r="B6">
+        <v>1.54</v>
+      </c>
+      <c r="D6">
+        <v>116.9</v>
+      </c>
+      <c r="E6">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>86.3</v>
+      </c>
+      <c r="B7">
+        <v>1.55</v>
+      </c>
+      <c r="D7">
+        <v>113</v>
+      </c>
+      <c r="E7">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>83.2</v>
+      </c>
+      <c r="B8">
+        <v>1.56</v>
+      </c>
+      <c r="D8">
+        <v>108.9</v>
+      </c>
+      <c r="E8">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="B9">
+        <v>1.57</v>
+      </c>
+      <c r="D9">
+        <v>106</v>
+      </c>
+      <c r="E9">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>1.58</v>
+      </c>
+      <c r="D10">
+        <v>102.7</v>
+      </c>
+      <c r="E10">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>68.7</v>
+      </c>
+      <c r="B11">
+        <v>1.59</v>
+      </c>
+      <c r="D11">
+        <v>98.6</v>
+      </c>
+      <c r="E11">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="B12">
+        <v>1.6</v>
+      </c>
+      <c r="D12">
+        <v>93.1</v>
+      </c>
+      <c r="E12">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60.7</v>
+      </c>
+      <c r="B13">
+        <v>1.61</v>
+      </c>
+      <c r="D13">
+        <v>90.6</v>
+      </c>
+      <c r="E13">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>56.5</v>
+      </c>
+      <c r="B14">
+        <v>1.62</v>
+      </c>
+      <c r="D14">
+        <v>86.9</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50.1</v>
+      </c>
+      <c r="B15">
+        <v>1.64</v>
+      </c>
+      <c r="D15">
+        <v>83</v>
+      </c>
+      <c r="E15">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>47.3</v>
+      </c>
+      <c r="B16">
+        <v>1.65</v>
+      </c>
+      <c r="D16">
+        <v>79.2</v>
+      </c>
+      <c r="E16">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>41.2</v>
+      </c>
+      <c r="B17">
+        <v>1.66</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="E18">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>65.8</v>
+      </c>
+      <c r="E19">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>62.5</v>
+      </c>
+      <c r="E20">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>53.9</v>
+      </c>
+      <c r="E21">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>49.4</v>
+      </c>
+      <c r="E22">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>46</v>
+      </c>
+      <c r="E23">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>39.4</v>
+      </c>
+      <c r="E25">
+        <v>1.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>